--- a/hf-cafe-tips.xlsx
+++ b/hf-cafe-tips.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\hf-da-resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\hf-da-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8809E331-3671-46D5-895D-F009653EF291}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FF5054-6A12-45DA-8940-3844CC93839D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25693" yWindow="-13" windowWidth="25786" windowHeight="13373" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tips" sheetId="1" r:id="rId1"/>
+    <sheet name="coffees" sheetId="4" r:id="rId1"/>
+    <sheet name="tips" sheetId="1" r:id="rId2"/>
+    <sheet name="tips-clean" sheetId="2" r:id="rId3"/>
+    <sheet name="tips-clean (2)" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="34">
   <si>
     <t>total_bill</t>
   </si>
@@ -87,22 +90,52 @@
     <t>Childs</t>
   </si>
   <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Cull</t>
-  </si>
-  <si>
     <t>Randolph</t>
   </si>
   <si>
     <t>Rentfro</t>
   </si>
   <si>
-    <t>Alexia</t>
-  </si>
-  <si>
-    <t>Alday</t>
+    <t>tip_recoded</t>
+  </si>
+  <si>
+    <t>coffees_ordered</t>
+  </si>
+  <si>
+    <t>Solomon</t>
+  </si>
+  <si>
+    <t>Sobolik</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Rogowski</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Drapeau</t>
+  </si>
+  <si>
+    <t>Milliner</t>
+  </si>
+  <si>
+    <t>Tiny</t>
+  </si>
+  <si>
+    <t>Torgersen</t>
+  </si>
+  <si>
+    <t>Average quantity</t>
+  </si>
+  <si>
+    <t>Average quantity (without Margaret)</t>
+  </si>
+  <si>
+    <t>Margaret</t>
   </si>
 </sst>
 </file>
@@ -586,8 +619,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -944,23 +980,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EBC943-3A7B-4A2A-A384-85D0E53E5596}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5234375" customWidth="1"/>
+    <col min="3" max="3" width="17.3671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <f>AVERAGE(C2:C6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B8)</f>
+        <v>=AVERAGE(C2:C6)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(C2:C4,C6)</f>
+        <v>5.25</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B9)</f>
+        <v>=AVERAGE(C2:C4,C6)</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.41796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -977,7 +1125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -994,7 +1142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1014,7 +1162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1034,7 +1182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1054,7 +1202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1074,7 +1222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1082,10 +1230,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>10.27</v>
-      </c>
-      <c r="D7">
-        <v>1.71</v>
+        <v>26.88</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -1094,15 +1239,201 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C8">
+        <v>10.07</v>
+      </c>
+      <c r="D8">
+        <v>1.83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E65CB0-71EB-4E2D-B230-A7127B3162A1}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>10.34</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>22.67</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>14.15</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>20.69</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="D6">
+        <v>3.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
         <v>26.88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="D8">
+        <v>3.5</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -1111,18 +1442,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>22.82</v>
+        <v>10.07</v>
       </c>
       <c r="D9">
-        <v>2.1800000000000002</v>
+        <v>1.83</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -1131,48 +1462,223 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B57BB1-69E8-43E5-92DA-18E167321C71}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.15625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>10.34</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <f>IF(ISBLANK(D2), "Unknown", D2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>22.67</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F8" si="0">IF(ISBLANK(D3), "Unknown", D3)</f>
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>14.15</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>20.69</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C10">
+      <c r="C6">
         <v>18.149999999999999</v>
       </c>
-      <c r="D10">
+      <c r="D6">
         <v>3.5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>26.88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(ISBLANK(D7), "Unknown", D7)</f>
+        <v>Unknown</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>10.07</v>
+      </c>
+      <c r="D8">
+        <v>1.83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.83</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="K10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>10.07</v>
-      </c>
-      <c r="D11">
-        <v>1.83</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K12" t="s">
         <v>9</v>
       </c>
     </row>

--- a/hf-cafe-tips.xlsx
+++ b/hf-cafe-tips.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\hf-da-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FF5054-6A12-45DA-8940-3844CC93839D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36BA69A-75CF-421E-9AAF-D63D151F2DF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25693" yWindow="-13" windowWidth="25786" windowHeight="13373" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="coffees" sheetId="4" r:id="rId1"/>
-    <sheet name="tips" sheetId="1" r:id="rId2"/>
-    <sheet name="tips-clean" sheetId="2" r:id="rId3"/>
-    <sheet name="tips-clean (2)" sheetId="3" r:id="rId4"/>
+    <sheet name="coffees-finish" sheetId="5" r:id="rId1"/>
+    <sheet name="coffees-finish (2)" sheetId="6" r:id="rId2"/>
+    <sheet name="coffees" sheetId="4" r:id="rId3"/>
+    <sheet name="tips" sheetId="1" r:id="rId4"/>
+    <sheet name="tips-clean" sheetId="2" r:id="rId5"/>
+    <sheet name="tips-clean (2)" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="36">
   <si>
     <t>total_bill</t>
   </si>
@@ -99,9 +101,6 @@
     <t>tip_recoded</t>
   </si>
   <si>
-    <t>coffees_ordered</t>
-  </si>
-  <si>
     <t>Solomon</t>
   </si>
   <si>
@@ -136,6 +135,15 @@
   </si>
   <si>
     <t>Margaret</t>
+  </si>
+  <si>
+    <t>coffees</t>
+  </si>
+  <si>
+    <t>coffees_recode</t>
+  </si>
+  <si>
+    <t>Average of coffees_recode:</t>
   </si>
 </sst>
 </file>
@@ -980,11 +988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EBC943-3A7B-4A2A-A384-85D0E53E5596}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5827C2A3-C983-434D-A8E0-F447009F108D}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1002,15 +1010,15 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -1018,10 +1026,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1029,10 +1037,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -1040,10 +1048,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1051,10 +1059,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -1062,7 +1070,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <f>AVERAGE(C2:C6)</f>
@@ -1075,7 +1083,7 @@
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <f>AVERAGE(C2:C4,C6)</f>
@@ -1092,11 +1100,227 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E602DB-0D46-476C-9C6A-5352EB01B77F}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5234375" customWidth="1"/>
+    <col min="3" max="3" width="15.734375" customWidth="1"/>
+    <col min="4" max="4" width="12.83984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <f>IF(C2 = 0, "Unknown", C2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">IF(C3 = 0, "Unknown", C3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Unknown</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(D2:D6)</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EBC943-3A7B-4A2A-A384-85D0E53E5596}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5234375" customWidth="1"/>
+    <col min="3" max="3" width="6.3671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1241,25 +1465,40 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="D8">
+        <v>3.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>10.07</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>1.83</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="K8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="K9" t="s">
         <v>9</v>
       </c>
@@ -1274,12 +1513,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E65CB0-71EB-4E2D-B230-A7127B3162A1}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="E9" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1472,12 +1711,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B57BB1-69E8-43E5-92DA-18E167321C71}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A8" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/hf-cafe-tips.xlsx
+++ b/hf-cafe-tips.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\hf-da-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36BA69A-75CF-421E-9AAF-D63D151F2DF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C28C48B-B668-4F99-9723-1BEB89F3DA1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-13" windowWidth="25786" windowHeight="13373" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25693" yWindow="-13" windowWidth="25786" windowHeight="13373" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="coffees-finish" sheetId="5" r:id="rId1"/>
-    <sheet name="coffees-finish (2)" sheetId="6" r:id="rId2"/>
-    <sheet name="coffees" sheetId="4" r:id="rId3"/>
-    <sheet name="tips" sheetId="1" r:id="rId4"/>
-    <sheet name="tips-clean" sheetId="2" r:id="rId5"/>
-    <sheet name="tips-clean (2)" sheetId="3" r:id="rId6"/>
+    <sheet name="tips" sheetId="1" r:id="rId1"/>
+    <sheet name="coffees" sheetId="4" r:id="rId2"/>
+    <sheet name="coffees-finish" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="coffees-finish (2)" sheetId="6" state="hidden" r:id="rId4"/>
+    <sheet name="tips-clean" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="tips-clean (2)" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="tips-finish" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="36">
   <si>
     <t>total_bill</t>
   </si>
@@ -988,6 +989,297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>10.34</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>22.67</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>14.15</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>20.69</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="D6">
+        <v>3.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>26.88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="D8">
+        <v>3.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>10.07</v>
+      </c>
+      <c r="D9">
+        <v>1.83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EBC943-3A7B-4A2A-A384-85D0E53E5596}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5234375" customWidth="1"/>
+    <col min="3" max="3" width="6.3671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5827C2A3-C983-434D-A8E0-F447009F108D}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1099,12 +1391,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E602DB-0D46-476C-9C6A-5352EB01B77F}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1204,7 +1496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1222,105 +1514,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EBC943-3A7B-4A2A-A384-85D0E53E5596}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="15.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5234375" customWidth="1"/>
-    <col min="3" max="3" width="6.3671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E65CB0-71EB-4E2D-B230-A7127B3162A1}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1513,210 +1712,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E65CB0-71EB-4E2D-B230-A7127B3162A1}">
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>10.34</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>22.67</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>14.15</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>20.69</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>18.149999999999999</v>
-      </c>
-      <c r="D6">
-        <v>3.5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>26.88</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>18.149999999999999</v>
-      </c>
-      <c r="D8">
-        <v>3.5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>10.07</v>
-      </c>
-      <c r="D9">
-        <v>1.83</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B57BB1-69E8-43E5-92DA-18E167321C71}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A2:A8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1766,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <f>IF(ISBLANK(D2), "Unknown", D2)</f>
+        <f>IF(ISBLANK(D2), 0, D2)</f>
         <v>2</v>
       </c>
     </row>
@@ -1787,7 +1788,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F8" si="0">IF(ISBLANK(D3), "Unknown", D3)</f>
+        <f t="shared" ref="F3:F8" si="0">IF(ISBLANK(D3), 0, D3)</f>
         <v>2</v>
       </c>
       <c r="K3" t="s">
@@ -1879,9 +1880,9 @@
       <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" t="str">
-        <f>IF(ISBLANK(D7), "Unknown", D7)</f>
-        <v>Unknown</v>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
         <v>9</v>
@@ -1912,6 +1913,204 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F06E05-D9CC-4EC2-AC61-23F8FA22E72E}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>10.34</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>22.67</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>14.15</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>20.69</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="D6">
+        <v>3.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>26.88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="D8">
+        <v>3.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>10.07</v>
+      </c>
+      <c r="D9">
+        <v>1.83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
       <c r="K9" t="s">
         <v>9</v>
       </c>
